--- a/com.crmsdet37Batch/src/test/resources/Vtiger.xlsx
+++ b/com.crmsdet37Batch/src/test/resources/Vtiger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15660" windowHeight="6540"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16020" windowHeight="6540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:P20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Project ID's</t>
   </si>
@@ -128,6 +128,27 @@
   </si>
   <si>
     <t>sanjay kumar</t>
+  </si>
+  <si>
+    <t>banalore</t>
+  </si>
+  <si>
+    <t>mysore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goa </t>
+  </si>
+  <si>
+    <t>raichur</t>
+  </si>
+  <si>
+    <t>dhelli</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>hubli</t>
   </si>
 </sst>
 </file>
@@ -474,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -641,12 +662,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
